--- a/data/trans_orig/P20B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA25D49-A13A-4260-B338-8FD4E706C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C13C24-3758-41DB-AB8B-16A59CE70A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D08B20B6-B1D6-4DC5-AA17-F885A369DF6C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85633FDF-650F-4FAC-BED2-CF22EE2093F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -77,1804 +77,1858 @@
     <t>27,14%</t>
   </si>
   <si>
-    <t>8,27%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>84,15%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
   </si>
   <si>
     <t>49,16%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>76,47%</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0082D830-5EC1-490A-A8C9-CB137C3D174F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7AC81D-067F-4D95-876B-406441ED9C7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3033,10 +3087,10 @@
         <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3045,13 +3099,13 @@
         <v>999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3060,13 +3114,13 @@
         <v>3697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3135,13 @@
         <v>10355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3096,10 +3150,10 @@
         <v>17843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -3111,13 +3165,13 @@
         <v>28198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3227,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3185,13 +3239,13 @@
         <v>3615</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3200,13 +3254,13 @@
         <v>5956</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3215,13 +3269,13 @@
         <v>9571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3290,13 @@
         <v>6851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -3251,13 +3305,13 @@
         <v>24616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -3266,13 +3320,13 @@
         <v>31467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3382,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3394,13 @@
         <v>12570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3355,13 +3409,13 @@
         <v>16233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3370,13 +3424,13 @@
         <v>28802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3445,13 @@
         <v>21518</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3406,13 +3460,13 @@
         <v>37435</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -3421,13 +3475,13 @@
         <v>58954</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3537,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3495,13 +3549,13 @@
         <v>6532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -3510,13 +3564,13 @@
         <v>9498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3525,13 +3579,13 @@
         <v>16030</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3600,13 @@
         <v>19179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -3561,13 +3615,13 @@
         <v>40996</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3576,13 +3630,13 @@
         <v>60175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3704,13 @@
         <v>35163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -3665,13 +3719,13 @@
         <v>50158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -3680,13 +3734,13 @@
         <v>85321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3755,13 @@
         <v>98819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>189</v>
@@ -3716,13 +3770,13 @@
         <v>198209</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -3731,13 +3785,13 @@
         <v>297028</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3847,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3817,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259622B6-1445-4D5F-B198-F69679D34C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8786C505-34E2-42F4-ABBB-0350597F019C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3834,7 +3888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,39 +3993,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +4038,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +4083,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4132,13 @@
         <v>11253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4093,13 +4147,13 @@
         <v>14700</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4108,13 +4162,13 @@
         <v>25953</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4183,13 @@
         <v>30963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4144,13 +4198,13 @@
         <v>44859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -4159,13 +4213,13 @@
         <v>75822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4287,13 @@
         <v>5131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4248,13 +4302,13 @@
         <v>9129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4263,13 +4317,13 @@
         <v>14261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4338,13 @@
         <v>19313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4299,13 +4353,13 @@
         <v>24839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4314,13 +4368,13 @@
         <v>44152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4442,13 @@
         <v>17259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4403,13 +4457,13 @@
         <v>18088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4418,13 +4472,13 @@
         <v>35348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4493,13 @@
         <v>27397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -4454,13 +4508,13 @@
         <v>55334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4469,13 +4523,13 @@
         <v>82730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4597,13 @@
         <v>7049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4558,13 +4612,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4573,13 +4627,13 @@
         <v>12892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4648,13 @@
         <v>6167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4609,13 +4663,13 @@
         <v>15547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4624,13 +4678,13 @@
         <v>21714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4740,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4698,13 +4752,13 @@
         <v>5165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4713,13 +4767,13 @@
         <v>4153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4728,13 +4782,13 @@
         <v>9317</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4803,13 @@
         <v>10220</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4764,13 +4818,13 @@
         <v>22603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -4779,13 +4833,13 @@
         <v>32824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4895,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4853,13 +4907,13 @@
         <v>9533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4868,13 +4922,13 @@
         <v>15063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -4883,13 +4937,13 @@
         <v>24596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4958,13 @@
         <v>21216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4919,13 +4973,13 @@
         <v>43609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -4934,13 +4988,13 @@
         <v>64825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +5050,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5008,13 +5062,13 @@
         <v>6364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5023,13 +5077,13 @@
         <v>15287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5038,13 +5092,13 @@
         <v>21650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5113,13 @@
         <v>30735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5074,13 +5128,13 @@
         <v>45482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -5089,13 +5143,13 @@
         <v>76217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5217,13 @@
         <v>61754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -5178,13 +5232,13 @@
         <v>82264</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>132</v>
@@ -5193,13 +5247,13 @@
         <v>144017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5268,13 @@
         <v>146011</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>236</v>
@@ -5229,13 +5283,13 @@
         <v>252272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -5244,13 +5298,13 @@
         <v>398284</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5360,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377F4FB-1F1D-4ADD-A004-0FD475266338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A98DD1A-2B0C-4D3E-B5DC-AA63ADACC784}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5347,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5508,13 @@
         <v>5527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5469,13 +5523,13 @@
         <v>5624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5484,13 +5538,13 @@
         <v>11151</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5559,13 @@
         <v>10114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5520,13 +5574,13 @@
         <v>27989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -5535,13 +5589,13 @@
         <v>38103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5663,13 @@
         <v>6645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5624,13 +5678,13 @@
         <v>8814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5639,13 +5693,13 @@
         <v>15460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5714,13 @@
         <v>14346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -5675,13 +5729,13 @@
         <v>27253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5690,13 +5744,13 @@
         <v>41599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5818,13 @@
         <v>2611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5779,13 +5833,13 @@
         <v>7050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5794,13 +5848,13 @@
         <v>9661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5869,13 @@
         <v>6456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5830,13 +5884,13 @@
         <v>25425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5845,13 +5899,13 @@
         <v>31882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5973,13 @@
         <v>8347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5934,13 +5988,13 @@
         <v>11116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5949,13 +6003,13 @@
         <v>19463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6024,13 @@
         <v>19710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5985,13 +6039,13 @@
         <v>20774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6000,13 +6054,13 @@
         <v>40484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6128,13 @@
         <v>4774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6089,13 +6143,13 @@
         <v>3830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6104,13 +6158,13 @@
         <v>8604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6179,13 @@
         <v>3893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6140,13 +6194,13 @@
         <v>7411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6155,13 +6209,13 @@
         <v>11304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6271,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6229,13 +6283,13 @@
         <v>6367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6244,13 +6298,13 @@
         <v>7998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6259,13 +6313,13 @@
         <v>14366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6334,13 @@
         <v>11815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6295,13 +6349,13 @@
         <v>18522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6310,13 +6364,13 @@
         <v>30337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,7 +6426,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6384,13 +6438,13 @@
         <v>8875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6399,13 +6453,13 @@
         <v>12000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6414,13 +6468,13 @@
         <v>20875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6489,13 @@
         <v>17285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6450,13 +6504,13 @@
         <v>36190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6465,13 +6519,13 @@
         <v>53475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6581,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6539,13 +6593,13 @@
         <v>11603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6554,13 +6608,13 @@
         <v>9215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6569,13 +6623,13 @@
         <v>20818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6644,13 @@
         <v>24108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -6605,13 +6659,13 @@
         <v>40318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -6620,13 +6674,13 @@
         <v>64426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6748,13 @@
         <v>54751</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -6709,13 +6763,13 @@
         <v>65647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -6724,13 +6778,13 @@
         <v>120398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6799,13 @@
         <v>107726</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -6760,13 +6814,13 @@
         <v>203884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -6775,13 +6829,13 @@
         <v>311610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6891,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C218CD0-03AE-42AC-AE93-B99B3C827CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CA3F41-4536-429F-B325-D44A06DA1246}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,7 +6932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,13 +7039,13 @@
         <v>2103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -7000,13 +7054,13 @@
         <v>2598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -7015,13 +7069,13 @@
         <v>4702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,10 +7090,10 @@
         <v>8603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -7051,13 +7105,13 @@
         <v>15419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -7066,13 +7120,13 @@
         <v>24021</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7194,13 @@
         <v>15744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -7155,13 +7209,13 @@
         <v>6438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -7170,13 +7224,13 @@
         <v>22182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7245,13 @@
         <v>24546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -7206,13 +7260,13 @@
         <v>17876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -7221,13 +7275,13 @@
         <v>42422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7349,13 @@
         <v>11459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7310,13 +7364,13 @@
         <v>7312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -7325,13 +7379,13 @@
         <v>18771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7400,13 @@
         <v>16716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -7361,13 +7415,13 @@
         <v>27955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -7376,13 +7430,13 @@
         <v>44670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7504,13 @@
         <v>9047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -7465,13 +7519,13 @@
         <v>11161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7480,13 +7534,13 @@
         <v>20208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7555,13 @@
         <v>14740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7516,13 +7570,13 @@
         <v>25886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7531,13 +7585,13 @@
         <v>40626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7659,13 @@
         <v>2522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7620,13 +7674,13 @@
         <v>1240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7635,13 +7689,13 @@
         <v>3763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7710,13 @@
         <v>2238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -7671,13 +7725,13 @@
         <v>7850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -7686,13 +7740,13 @@
         <v>10087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7802,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7814,13 @@
         <v>6435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7775,13 +7829,13 @@
         <v>3519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -7790,13 +7844,13 @@
         <v>9954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7865,13 @@
         <v>18676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -7826,13 +7880,13 @@
         <v>19614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7841,13 +7895,13 @@
         <v>38291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7957,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7915,13 +7969,13 @@
         <v>9465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -7930,13 +7984,13 @@
         <v>16370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -7945,13 +7999,13 @@
         <v>25834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +8020,13 @@
         <v>27332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -7981,13 +8035,13 @@
         <v>38328</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>341</v>
+        <v>593</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -7996,13 +8050,13 @@
         <v>65660</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>576</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8112,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8070,13 +8124,13 @@
         <v>8448</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8085,13 +8139,13 @@
         <v>5078</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -8100,13 +8154,13 @@
         <v>13526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8175,13 @@
         <v>18326</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -8136,13 +8190,13 @@
         <v>29722</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8151,13 +8205,13 @@
         <v>48048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>593</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8279,13 @@
         <v>65223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -8240,13 +8294,13 @@
         <v>53717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>162</v>
@@ -8255,13 +8309,13 @@
         <v>118940</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8330,13 @@
         <v>131178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -8291,13 +8345,13 @@
         <v>182649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -8306,13 +8360,13 @@
         <v>313826</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,7 +8422,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C13C24-3758-41DB-AB8B-16A59CE70A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB880A1-E213-4861-99A1-581A498C53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85633FDF-650F-4FAC-BED2-CF22EE2093F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8E53BFC-2D15-4545-AC20-56E4BDB43098}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="618">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>27,14%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,1786 +95,1750 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>86,39%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
   </si>
   <si>
     <t>33,21%</t>
@@ -2340,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7AC81D-067F-4D95-876B-406441ED9C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DBDCBC-4487-42C0-AB89-3D557BEC356B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3871,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8786C505-34E2-42F4-ABBB-0350597F019C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A9289-43BE-4984-AB3B-6EFF6B0D01BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4162,13 +4126,13 @@
         <v>25953</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4147,13 @@
         <v>30963</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4198,13 +4162,13 @@
         <v>44859</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -4213,13 +4177,13 @@
         <v>75822</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4251,13 @@
         <v>5131</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4302,13 +4266,13 @@
         <v>9129</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4317,13 +4281,13 @@
         <v>14261</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4302,13 @@
         <v>19313</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4353,13 +4317,13 @@
         <v>24839</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4368,13 +4332,13 @@
         <v>44152</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4406,13 @@
         <v>17259</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4457,13 +4421,13 @@
         <v>18088</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4472,13 +4436,13 @@
         <v>35348</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4457,13 @@
         <v>27397</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -4508,13 +4472,13 @@
         <v>55334</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4523,13 +4487,13 @@
         <v>82730</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4561,13 @@
         <v>7049</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4612,13 +4576,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4627,13 +4591,13 @@
         <v>12892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4612,13 @@
         <v>6167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4663,13 +4627,13 @@
         <v>15547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4678,13 +4642,13 @@
         <v>21714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4716,13 @@
         <v>5165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4767,13 +4731,13 @@
         <v>4153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4782,13 +4746,13 @@
         <v>9317</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4767,13 @@
         <v>10220</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4818,13 +4782,13 @@
         <v>22603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -4833,13 +4797,13 @@
         <v>32824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4871,13 @@
         <v>9533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4922,13 +4886,13 @@
         <v>15063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -4937,13 +4901,13 @@
         <v>24596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4922,13 @@
         <v>21216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4973,13 +4937,13 @@
         <v>43609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -4988,13 +4952,13 @@
         <v>64825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5026,13 @@
         <v>6364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5077,13 +5041,13 @@
         <v>15287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5092,13 +5056,13 @@
         <v>21650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5077,13 @@
         <v>30735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5128,13 +5092,13 @@
         <v>45482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -5143,13 +5107,13 @@
         <v>76217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5181,13 @@
         <v>61754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -5232,13 +5196,13 @@
         <v>82264</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>132</v>
@@ -5247,13 +5211,13 @@
         <v>144017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5232,13 @@
         <v>146011</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>236</v>
@@ -5283,13 +5247,13 @@
         <v>252272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -5298,13 +5262,13 @@
         <v>398284</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A98DD1A-2B0C-4D3E-B5DC-AA63ADACC784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F974A8A0-0F74-429D-9348-8A7000BE3FE8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5401,7 +5365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5508,13 +5472,13 @@
         <v>5527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5523,13 +5487,13 @@
         <v>5624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5538,13 +5502,13 @@
         <v>11151</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5523,13 @@
         <v>10114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5574,13 +5538,13 @@
         <v>27989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -5589,13 +5553,13 @@
         <v>38103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5627,13 @@
         <v>6645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5678,13 +5642,13 @@
         <v>8814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5693,13 +5657,13 @@
         <v>15460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5678,13 @@
         <v>14346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -5729,13 +5693,13 @@
         <v>27253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5744,13 +5708,13 @@
         <v>41599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5782,13 @@
         <v>2611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5833,13 +5797,13 @@
         <v>7050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5848,13 +5812,13 @@
         <v>9661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5833,13 @@
         <v>6456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5884,13 +5848,13 @@
         <v>25425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5899,13 +5863,13 @@
         <v>31882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5937,13 @@
         <v>8347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5988,13 +5952,13 @@
         <v>11116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -6003,13 +5967,13 @@
         <v>19463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +5988,13 @@
         <v>19710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -6039,13 +6003,13 @@
         <v>20774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6054,13 +6018,13 @@
         <v>40484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6092,13 @@
         <v>4774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6143,13 +6107,13 @@
         <v>3830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6158,13 +6122,13 @@
         <v>8604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6143,13 @@
         <v>3893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6194,13 +6158,13 @@
         <v>7411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6209,13 +6173,13 @@
         <v>11304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6247,13 @@
         <v>6367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6298,13 +6262,13 @@
         <v>7998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6313,13 +6277,13 @@
         <v>14366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6298,13 @@
         <v>11815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6349,13 +6313,13 @@
         <v>18522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6364,13 +6328,13 @@
         <v>30337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6402,13 @@
         <v>8875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6453,13 +6417,13 @@
         <v>12000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6468,13 +6432,13 @@
         <v>20875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6453,13 @@
         <v>17285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6504,13 +6468,13 @@
         <v>36190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6519,13 +6483,13 @@
         <v>53475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6557,13 @@
         <v>11603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6608,13 +6572,13 @@
         <v>9215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6623,13 +6587,13 @@
         <v>20818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6608,13 @@
         <v>24108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -6659,13 +6623,13 @@
         <v>40318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -6674,13 +6638,13 @@
         <v>64426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>461</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6712,13 @@
         <v>54751</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -6763,13 +6727,13 @@
         <v>65647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -6778,13 +6742,13 @@
         <v>120398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6763,13 @@
         <v>107726</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -6814,13 +6778,13 @@
         <v>203884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -6829,13 +6793,13 @@
         <v>311610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,7 +6879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CA3F41-4536-429F-B325-D44A06DA1246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C8A47A-B972-4FBC-8F64-88A5291FEDF6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6932,7 +6896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7039,13 +7003,13 @@
         <v>2103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -7054,13 +7018,13 @@
         <v>2598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -7069,13 +7033,13 @@
         <v>4702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,10 +7054,10 @@
         <v>8603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -7105,13 +7069,13 @@
         <v>15419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -7120,13 +7084,13 @@
         <v>24021</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7158,13 @@
         <v>15744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -7209,13 +7173,13 @@
         <v>6438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -7224,13 +7188,13 @@
         <v>22182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7209,13 @@
         <v>24546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -7260,13 +7224,13 @@
         <v>17876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>509</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -7275,13 +7239,13 @@
         <v>42422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7313,13 @@
         <v>11459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7364,13 +7328,13 @@
         <v>7312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -7379,13 +7343,13 @@
         <v>18771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7364,13 @@
         <v>16716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -7415,13 +7379,13 @@
         <v>27955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -7430,13 +7394,13 @@
         <v>44670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7468,13 @@
         <v>9047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -7519,13 +7483,13 @@
         <v>11161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7534,13 +7498,13 @@
         <v>20208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7519,13 @@
         <v>14740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7570,13 +7534,13 @@
         <v>25886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7585,13 +7549,13 @@
         <v>40626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7623,13 @@
         <v>2522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7674,13 +7638,13 @@
         <v>1240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7689,13 +7653,13 @@
         <v>3763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7674,13 @@
         <v>2238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -7725,13 +7689,13 @@
         <v>7850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -7740,13 +7704,13 @@
         <v>10087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7778,13 @@
         <v>6435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7829,13 +7793,13 @@
         <v>3519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -7844,13 +7808,13 @@
         <v>9954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7829,13 @@
         <v>18676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -7880,13 +7844,13 @@
         <v>19614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7895,13 +7859,13 @@
         <v>38291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7933,13 @@
         <v>9465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -7984,13 +7948,13 @@
         <v>16370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -7999,13 +7963,13 @@
         <v>25834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +7984,13 @@
         <v>27332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -8035,13 +7999,13 @@
         <v>38328</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -8050,13 +8014,13 @@
         <v>65660</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>225</v>
+        <v>580</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8088,13 @@
         <v>8448</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8139,13 +8103,13 @@
         <v>5078</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -8154,13 +8118,13 @@
         <v>13526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>589</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8139,13 @@
         <v>18326</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -8190,13 +8154,13 @@
         <v>29722</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8205,13 +8169,13 @@
         <v>48048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8243,13 @@
         <v>65223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -8294,13 +8258,13 @@
         <v>53717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>162</v>
@@ -8309,13 +8273,13 @@
         <v>118940</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,13 +8294,13 @@
         <v>131178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -8345,13 +8309,13 @@
         <v>182649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -8360,13 +8324,13 @@
         <v>313826</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB880A1-E213-4861-99A1-581A498C53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5296F4-66E9-4872-A825-CF866EFE4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8E53BFC-2D15-4545-AC20-56E4BDB43098}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B329BCA4-C9AC-436F-9AC4-BE84375A2A15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>72,86%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,55 +137,55 @@
     <t>19,73%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,1705 +194,1687 @@
     <t>12,87%</t>
   </si>
   <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>80,46%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DBDCBC-4487-42C0-AB89-3D557BEC356B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E55976-8DDB-4696-B6E3-F62B09D763DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3051,10 +3033,10 @@
         <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3063,13 +3045,13 @@
         <v>999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3078,13 +3060,13 @@
         <v>3697</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3081,13 @@
         <v>10355</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3114,10 +3096,10 @@
         <v>17843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -3129,13 +3111,13 @@
         <v>28198</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3173,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3203,13 +3185,13 @@
         <v>3615</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3218,13 +3200,13 @@
         <v>5956</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3233,13 +3215,13 @@
         <v>9571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3236,13 @@
         <v>6851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -3269,13 +3251,13 @@
         <v>24616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -3284,13 +3266,13 @@
         <v>31467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,7 +3328,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3358,13 +3340,13 @@
         <v>12570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3373,13 +3355,13 @@
         <v>16233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3388,13 +3370,13 @@
         <v>28802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3391,13 @@
         <v>21518</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3424,13 +3406,13 @@
         <v>37435</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -3439,13 +3421,13 @@
         <v>58954</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,7 +3483,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3513,13 +3495,13 @@
         <v>6532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -3528,13 +3510,13 @@
         <v>9498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3543,13 +3525,13 @@
         <v>16030</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3546,13 @@
         <v>19179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -3579,13 +3561,13 @@
         <v>40996</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3594,13 +3576,13 @@
         <v>60175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3650,13 @@
         <v>35163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -3683,13 +3665,13 @@
         <v>50158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -3698,13 +3680,13 @@
         <v>85321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3701,13 @@
         <v>98819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>189</v>
@@ -3734,13 +3716,13 @@
         <v>198209</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -3749,13 +3731,13 @@
         <v>297028</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3793,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A9289-43BE-4984-AB3B-6EFF6B0D01BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E572DEC6-1EFE-4302-BC08-C5B3DE30AE44}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,39 +3939,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +3984,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,39 +4029,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4078,13 @@
         <v>11253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4111,13 +4093,13 @@
         <v>14700</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4126,13 +4108,13 @@
         <v>25953</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4129,13 @@
         <v>30963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4162,13 +4144,13 @@
         <v>44859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -4177,13 +4159,13 @@
         <v>75822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4233,13 @@
         <v>5131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4266,13 +4248,13 @@
         <v>9129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4281,13 +4263,13 @@
         <v>14261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4284,13 @@
         <v>19313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4317,13 +4299,13 @@
         <v>24839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4332,13 +4314,13 @@
         <v>44152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4388,13 @@
         <v>17259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4421,13 +4403,13 @@
         <v>18088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4436,13 +4418,13 @@
         <v>35348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4439,13 @@
         <v>27397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -4472,13 +4454,13 @@
         <v>55334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -4487,13 +4469,13 @@
         <v>82730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4543,13 @@
         <v>7049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4576,13 +4558,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4591,13 +4573,13 @@
         <v>12892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4594,13 @@
         <v>6167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4627,13 +4609,13 @@
         <v>15547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4642,13 +4624,13 @@
         <v>21714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4686,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4716,13 +4698,13 @@
         <v>5165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4731,13 +4713,13 @@
         <v>4153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4746,13 +4728,13 @@
         <v>9317</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4749,13 @@
         <v>10220</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4782,13 +4764,13 @@
         <v>22603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -4797,13 +4779,13 @@
         <v>32824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4841,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4871,13 +4853,13 @@
         <v>9533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4886,13 +4868,13 @@
         <v>15063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -4901,13 +4883,13 @@
         <v>24596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4904,13 @@
         <v>21216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4937,13 +4919,13 @@
         <v>43609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -4952,13 +4934,13 @@
         <v>64825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +4996,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5026,13 +5008,13 @@
         <v>6364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5041,13 +5023,13 @@
         <v>15287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5056,13 +5038,13 @@
         <v>21650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5059,13 @@
         <v>30735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5092,13 +5074,13 @@
         <v>45482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -5107,13 +5089,13 @@
         <v>76217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5163,13 @@
         <v>61754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -5196,13 +5178,13 @@
         <v>82264</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="M28" s="7">
         <v>132</v>
@@ -5211,13 +5193,13 @@
         <v>144017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5214,13 @@
         <v>146011</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>236</v>
@@ -5247,13 +5229,13 @@
         <v>252272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -5262,13 +5244,13 @@
         <v>398284</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5306,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5348,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F974A8A0-0F74-429D-9348-8A7000BE3FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312110EB-F1D7-4AC3-8F17-75DCBD9F656E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5365,7 +5347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5472,13 +5454,13 @@
         <v>5527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5487,13 +5469,13 @@
         <v>5624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5502,13 +5484,13 @@
         <v>11151</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5505,13 @@
         <v>10114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5538,13 +5520,13 @@
         <v>27989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -5553,13 +5535,13 @@
         <v>38103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5609,13 @@
         <v>6645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5642,13 +5624,13 @@
         <v>8814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5657,13 +5639,13 @@
         <v>15460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5660,13 @@
         <v>14346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -5693,13 +5675,13 @@
         <v>27253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5708,13 +5690,13 @@
         <v>41599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5764,13 @@
         <v>2611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5797,13 +5779,13 @@
         <v>7050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5812,13 +5794,13 @@
         <v>9661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5815,13 @@
         <v>6456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5848,13 +5830,13 @@
         <v>25425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5863,13 +5845,13 @@
         <v>31882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5919,13 @@
         <v>8347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5952,13 +5934,13 @@
         <v>11116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5967,13 +5949,13 @@
         <v>19463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5970,13 @@
         <v>19710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -6003,13 +5985,13 @@
         <v>20774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6018,13 +6000,13 @@
         <v>40484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6074,13 @@
         <v>4774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6107,13 +6089,13 @@
         <v>3830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6122,13 +6104,13 @@
         <v>8604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6125,13 @@
         <v>3893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6158,13 +6140,13 @@
         <v>7411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6173,13 +6155,13 @@
         <v>11304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6217,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6247,13 +6229,13 @@
         <v>6367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6262,13 +6244,13 @@
         <v>7998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6277,13 +6259,13 @@
         <v>14366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6280,13 @@
         <v>11815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6313,13 +6295,13 @@
         <v>18522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6328,13 +6310,13 @@
         <v>30337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6372,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6402,13 +6384,13 @@
         <v>8875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6417,13 +6399,13 @@
         <v>12000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6432,13 +6414,13 @@
         <v>20875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6435,13 @@
         <v>17285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6468,13 +6450,13 @@
         <v>36190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6483,13 +6465,13 @@
         <v>53475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,7 +6527,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6557,13 +6539,13 @@
         <v>11603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6572,13 +6554,13 @@
         <v>9215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6587,13 +6569,13 @@
         <v>20818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6590,13 @@
         <v>24108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -6623,13 +6605,13 @@
         <v>40318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -6638,13 +6620,13 @@
         <v>64426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>447</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6694,13 @@
         <v>54751</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -6727,13 +6709,13 @@
         <v>65647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -6742,13 +6724,13 @@
         <v>120398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6745,13 @@
         <v>107726</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -6778,13 +6760,13 @@
         <v>203884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -6793,13 +6775,13 @@
         <v>311610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,7 +6837,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6879,7 +6861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C8A47A-B972-4FBC-8F64-88A5291FEDF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CEC18C-57AE-4418-B785-5142BC9B5FCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6896,7 +6878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7003,13 +6985,13 @@
         <v>2103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -7018,13 +7000,13 @@
         <v>2598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -7033,13 +7015,13 @@
         <v>4702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,10 +7036,10 @@
         <v>8603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -7069,13 +7051,13 @@
         <v>15419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -7084,13 +7066,13 @@
         <v>24021</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7140,13 @@
         <v>15744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -7173,13 +7155,13 @@
         <v>6438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -7188,13 +7170,13 @@
         <v>22182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7191,13 @@
         <v>24546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -7224,13 +7206,13 @@
         <v>17876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>498</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -7239,13 +7221,13 @@
         <v>42422</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>501</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7295,13 @@
         <v>11459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7328,13 +7310,13 @@
         <v>7312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -7343,13 +7325,13 @@
         <v>18771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7346,13 @@
         <v>16716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -7379,13 +7361,13 @@
         <v>27955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>510</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -7394,13 +7376,13 @@
         <v>44670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7450,13 @@
         <v>9047</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -7483,13 +7465,13 @@
         <v>11161</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7498,13 +7480,13 @@
         <v>20208</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>522</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7501,13 @@
         <v>14740</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7534,13 +7516,13 @@
         <v>25886</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7549,13 +7531,13 @@
         <v>40626</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7605,13 @@
         <v>2522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7638,13 +7620,13 @@
         <v>1240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7653,13 +7635,13 @@
         <v>3763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7656,13 @@
         <v>2238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -7689,13 +7671,13 @@
         <v>7850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -7704,13 +7686,13 @@
         <v>10087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>547</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,7 +7748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7778,13 +7760,13 @@
         <v>6435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -7793,13 +7775,13 @@
         <v>3519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -7808,13 +7790,13 @@
         <v>9954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7811,13 @@
         <v>18676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -7844,13 +7826,13 @@
         <v>19614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7859,13 +7841,13 @@
         <v>38291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,7 +7903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7933,13 +7915,13 @@
         <v>9465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -7948,13 +7930,13 @@
         <v>16370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>570</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -7963,13 +7945,13 @@
         <v>25834</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +7966,13 @@
         <v>27332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -7999,13 +7981,13 @@
         <v>38328</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>578</v>
+        <v>341</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -8014,13 +7996,13 @@
         <v>65660</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,7 +8058,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8088,13 +8070,13 @@
         <v>8448</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8103,13 +8085,13 @@
         <v>5078</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -8118,13 +8100,13 @@
         <v>13526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,13 +8121,13 @@
         <v>18326</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -8154,13 +8136,13 @@
         <v>29722</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8169,13 +8151,13 @@
         <v>48048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>598</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8225,13 @@
         <v>65223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -8258,13 +8240,13 @@
         <v>53717</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M28" s="7">
         <v>162</v>
@@ -8273,13 +8255,13 @@
         <v>118940</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,13 +8276,13 @@
         <v>131178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -8309,13 +8291,13 @@
         <v>182649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -8324,13 +8306,13 @@
         <v>313826</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,7 +8368,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5296F4-66E9-4872-A825-CF866EFE4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24C9271-906C-413F-9FC0-1BF94F905A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B329BCA4-C9AC-436F-9AC4-BE84375A2A15}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D5A1EE-F96D-4E91-9974-E9011EECE8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -542,7 +542,58 @@
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>26,66%</t>
@@ -647,58 +698,52 @@
     <t>84,84%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>53,34%</t>
@@ -758,9 +803,6 @@
     <t>33,57%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
     <t>62,28%</t>
   </si>
   <si>
@@ -788,9 +830,6 @@
     <t>37,72%</t>
   </si>
   <si>
-    <t>91,01%</t>
-  </si>
-  <si>
     <t>84,48%</t>
   </si>
   <si>
@@ -1439,442 +1478,442 @@
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
   </si>
   <si>
-    <t>19,65%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>53,21%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E55976-8DDB-4696-B6E3-F62B09D763DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DB0BA0-8631-4BE6-94D4-4E44F03E2DA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3817,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E572DEC6-1EFE-4302-BC08-C5B3DE30AE44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9804A1-E91E-44A6-8033-C19CAB5DF78E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3935,43 +3974,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12477</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10565</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23042</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,43 +4025,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12027</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>26367</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N5" s="7">
+        <v>38395</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,43 +4076,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24504</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I6" s="7">
+        <v>36932</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <v>61437</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4135,13 @@
         <v>11253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4093,13 +4150,13 @@
         <v>14700</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4108,10 +4165,10 @@
         <v>25953</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>67</v>
@@ -4129,13 +4186,13 @@
         <v>30963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4144,13 +4201,13 @@
         <v>44859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -4159,13 +4216,13 @@
         <v>75822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4290,13 @@
         <v>5131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4248,13 +4305,13 @@
         <v>9129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4263,13 +4320,13 @@
         <v>14261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4341,13 @@
         <v>19313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4299,13 +4356,13 @@
         <v>24839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -4314,13 +4371,13 @@
         <v>44152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,49 +4439,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>17259</v>
+        <v>4782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>18088</v>
+        <v>7523</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>35348</v>
+        <v>12306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,49 +4490,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>27397</v>
+        <v>15370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>55334</v>
+        <v>28967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>82730</v>
+        <v>44335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4541,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7">
-        <v>44656</v>
+        <v>20152</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -4499,10 +4556,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I15" s="7">
-        <v>73422</v>
+        <v>36490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4514,10 +4571,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N15" s="7">
-        <v>118078</v>
+        <v>56641</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4543,13 +4600,13 @@
         <v>7049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4558,13 +4615,13 @@
         <v>5843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4573,13 +4630,13 @@
         <v>12892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4651,13 @@
         <v>6167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4609,13 +4666,13 @@
         <v>15547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4624,13 +4681,13 @@
         <v>21714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4755,13 @@
         <v>5165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4713,13 +4770,13 @@
         <v>4153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4728,13 +4785,13 @@
         <v>9317</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4806,13 @@
         <v>10220</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4764,13 +4821,13 @@
         <v>22603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -4779,13 +4836,13 @@
         <v>32824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4910,13 @@
         <v>9533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4868,13 +4925,13 @@
         <v>15063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -4883,13 +4940,13 @@
         <v>24596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4961,13 @@
         <v>21216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4919,13 +4976,13 @@
         <v>43609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -4934,13 +4991,13 @@
         <v>64825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5065,13 @@
         <v>6364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5023,13 +5080,13 @@
         <v>15287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5038,13 +5095,13 @@
         <v>21650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5116,13 @@
         <v>30735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5074,13 +5131,13 @@
         <v>45482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -5089,13 +5146,13 @@
         <v>76217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5220,13 @@
         <v>61754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -5178,10 +5235,10 @@
         <v>82264</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>88</v>
@@ -5193,13 +5250,13 @@
         <v>144017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5271,13 @@
         <v>146011</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>236</v>
@@ -5229,13 +5286,13 @@
         <v>252272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -5244,13 +5301,13 @@
         <v>398284</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312110EB-F1D7-4AC3-8F17-75DCBD9F656E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68873D7-DED5-478C-BE7B-4803F53B638F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5347,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5511,13 @@
         <v>5527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5469,13 +5526,13 @@
         <v>5624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5484,13 +5541,13 @@
         <v>11151</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5562,13 @@
         <v>10114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5520,13 +5577,13 @@
         <v>27989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -5535,13 +5592,13 @@
         <v>38103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5666,13 @@
         <v>6645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5624,13 +5681,13 @@
         <v>8814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5639,13 +5696,13 @@
         <v>15460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5717,13 @@
         <v>14346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -5675,13 +5732,13 @@
         <v>27253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5690,13 +5747,13 @@
         <v>41599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5821,13 @@
         <v>2611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5779,13 +5836,13 @@
         <v>7050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5794,13 +5851,13 @@
         <v>9661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5872,13 @@
         <v>6456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5830,13 +5887,13 @@
         <v>25425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5845,13 +5902,13 @@
         <v>31882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5976,13 @@
         <v>8347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5934,13 +5991,13 @@
         <v>11116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5949,13 +6006,13 @@
         <v>19463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6027,13 @@
         <v>19710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5985,13 +6042,13 @@
         <v>20774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6000,13 +6057,13 @@
         <v>40484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6131,13 @@
         <v>4774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6089,13 +6146,13 @@
         <v>3830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6104,13 +6161,13 @@
         <v>8604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6182,13 @@
         <v>3893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6140,13 +6197,13 @@
         <v>7411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6155,13 +6212,13 @@
         <v>11304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6286,13 @@
         <v>6367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6244,13 +6301,13 @@
         <v>7998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -6259,13 +6316,13 @@
         <v>14366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6337,13 @@
         <v>11815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6295,13 +6352,13 @@
         <v>18522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6310,13 +6367,13 @@
         <v>30337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6441,13 @@
         <v>8875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6399,13 +6456,13 @@
         <v>12000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6414,13 +6471,13 @@
         <v>20875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6492,13 @@
         <v>17285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6450,13 +6507,13 @@
         <v>36190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6465,13 +6522,13 @@
         <v>53475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6596,13 @@
         <v>11603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6554,13 +6611,13 @@
         <v>9215</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6569,13 +6626,13 @@
         <v>20818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6647,13 @@
         <v>24108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -6605,13 +6662,13 @@
         <v>40318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -6620,13 +6677,13 @@
         <v>64426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6751,13 @@
         <v>54751</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -6709,13 +6766,13 @@
         <v>65647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -6724,13 +6781,13 @@
         <v>120398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6802,13 @@
         <v>107726</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -6760,13 +6817,13 @@
         <v>203884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>291</v>
@@ -6775,13 +6832,13 @@
         <v>311610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CEC18C-57AE-4418-B785-5142BC9B5FCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F42902-B6DD-45B7-8D08-0B1DE3C499CB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6982,46 +7039,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2103</v>
+        <v>2471</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2598</v>
+        <v>2683</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>4702</v>
+        <v>5154</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7090,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>8603</v>
+        <v>9573</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -7048,31 +7105,31 @@
         <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>15419</v>
+        <v>16211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>24021</v>
+        <v>25784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,7 +7141,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>10706</v>
+        <v>12044</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -7099,7 +7156,7 @@
         <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>18017</v>
+        <v>18894</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -7114,7 +7171,7 @@
         <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>28723</v>
+        <v>30938</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -7137,46 +7194,46 @@
         <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>15744</v>
+        <v>15203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>6438</v>
+        <v>6090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>22182</v>
+        <v>21293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,46 +7245,46 @@
         <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>24546</v>
+        <v>23541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>17876</v>
+        <v>16321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>42422</v>
+        <v>39862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,7 +7296,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>40290</v>
+        <v>38744</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -7254,7 +7311,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="7">
-        <v>24314</v>
+        <v>22411</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -7269,7 +7326,7 @@
         <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>64604</v>
+        <v>61155</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -7292,46 +7349,46 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>11459</v>
+        <v>11062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>7312</v>
+        <v>6813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>18771</v>
+        <v>17876</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,46 +7400,46 @@
         <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>16716</v>
+        <v>16079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>27955</v>
+        <v>26031</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>44670</v>
+        <v>42109</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,7 +7451,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>28175</v>
+        <v>27141</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -7409,7 +7466,7 @@
         <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>35267</v>
+        <v>32844</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -7424,7 +7481,7 @@
         <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>63441</v>
+        <v>59985</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -7447,46 +7504,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>9047</v>
+        <v>8663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>11161</v>
+        <v>10340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>20208</v>
+        <v>19004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,46 +7555,46 @@
         <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>14740</v>
+        <v>14574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>25886</v>
+        <v>23298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>40626</v>
+        <v>37871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,7 +7606,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="7">
-        <v>23787</v>
+        <v>23237</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -7564,7 +7621,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="7">
-        <v>37047</v>
+        <v>33638</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -7579,7 +7636,7 @@
         <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>60834</v>
+        <v>56875</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -7602,46 +7659,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2522</v>
+        <v>2283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>531</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1240</v>
+        <v>1130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>3763</v>
+        <v>3413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,46 +7710,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2238</v>
+        <v>2025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>7850</v>
+        <v>7127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>10087</v>
+        <v>9152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,7 +7761,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>4760</v>
+        <v>4308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -7719,7 +7776,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>9090</v>
+        <v>8257</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -7734,7 +7791,7 @@
         <v>29</v>
       </c>
       <c r="N18" s="7">
-        <v>13850</v>
+        <v>12565</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -7757,46 +7814,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>6435</v>
+        <v>6220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3519</v>
+        <v>3284</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>9954</v>
+        <v>9504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,46 +7865,46 @@
         <v>29</v>
       </c>
       <c r="D20" s="7">
-        <v>18676</v>
+        <v>18032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>19614</v>
+        <v>18293</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
       </c>
       <c r="N20" s="7">
-        <v>38291</v>
+        <v>36326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,7 +7916,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="7">
-        <v>25111</v>
+        <v>24252</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -7874,7 +7931,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="7">
-        <v>23133</v>
+        <v>21577</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -7889,7 +7946,7 @@
         <v>82</v>
       </c>
       <c r="N21" s="7">
-        <v>48245</v>
+        <v>45830</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -7912,46 +7969,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>9465</v>
+        <v>8974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>16370</v>
+        <v>15181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>25834</v>
+        <v>24154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,46 +8020,46 @@
         <v>32</v>
       </c>
       <c r="D23" s="7">
-        <v>27332</v>
+        <v>26268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
       </c>
       <c r="I23" s="7">
-        <v>38328</v>
+        <v>35654</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>341</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
       </c>
       <c r="N23" s="7">
-        <v>65660</v>
+        <v>61923</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,7 +8071,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="7">
-        <v>36797</v>
+        <v>35242</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -8029,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="I24" s="7">
-        <v>54698</v>
+        <v>50835</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -8044,7 +8101,7 @@
         <v>126</v>
       </c>
       <c r="N24" s="7">
-        <v>91494</v>
+        <v>86077</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -8067,46 +8124,46 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>8448</v>
+        <v>7400</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>5078</v>
+        <v>4322</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>13526</v>
+        <v>11722</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,46 +8175,46 @@
         <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>18326</v>
+        <v>15690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
       </c>
       <c r="I26" s="7">
-        <v>29722</v>
+        <v>24065</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
       </c>
       <c r="N26" s="7">
-        <v>48048</v>
+        <v>39755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,7 +8226,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="7">
-        <v>26774</v>
+        <v>23090</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -8184,7 +8241,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="7">
-        <v>34800</v>
+        <v>28387</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -8199,7 +8256,7 @@
         <v>67</v>
       </c>
       <c r="N27" s="7">
-        <v>61574</v>
+        <v>51477</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -8222,46 +8279,46 @@
         <v>77</v>
       </c>
       <c r="D28" s="7">
-        <v>65223</v>
+        <v>62276</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
       </c>
       <c r="I28" s="7">
-        <v>53717</v>
+        <v>49843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>162</v>
       </c>
       <c r="N28" s="7">
-        <v>118940</v>
+        <v>112120</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>602</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,46 +8330,46 @@
         <v>151</v>
       </c>
       <c r="D29" s="7">
-        <v>131178</v>
+        <v>125782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
       </c>
       <c r="I29" s="7">
-        <v>182649</v>
+        <v>167000</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
       </c>
       <c r="N29" s="7">
-        <v>313826</v>
+        <v>292782</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,7 +8381,7 @@
         <v>228</v>
       </c>
       <c r="D30" s="7">
-        <v>196401</v>
+        <v>188058</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -8339,7 +8396,7 @@
         <v>344</v>
       </c>
       <c r="I30" s="7">
-        <v>236366</v>
+        <v>216843</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -8354,7 +8411,7 @@
         <v>572</v>
       </c>
       <c r="N30" s="7">
-        <v>432766</v>
+        <v>404902</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
